--- a/vim-vscode-shortcuts.xlsx
+++ b/vim-vscode-shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beepl\git\ahk-layered-keymap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272608F-8A3A-4BAB-9D89-D76DD7CECF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1917B5D8-0BA1-40A8-AF0A-ABDDE9710211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{5885CC67-E1D3-42A2-A308-8F6862713078}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="248">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,10 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>set anchor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sel all find</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,29 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fold 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fold 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fold 3</t>
-  </si>
-  <si>
-    <t>fold 4</t>
-  </si>
-  <si>
-    <t>fold 5</t>
-  </si>
-  <si>
-    <t>fold 6</t>
-  </si>
-  <si>
-    <t>fold 7</t>
-  </si>
-  <si>
     <t>fold all region</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,10 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>breadcrumb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>copy path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,10 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>guess lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hierarchy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,14 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search editor shrink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search editor expand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goto mark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,14 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>backward f/F/t/T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forward f/F/t/T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>indent target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -687,11 +635,364 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search editor hide file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>remove brackets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev suggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev recent tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>least recent tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev recent window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>least recent window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put before cursor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put after cursor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show all commands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle preserve case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy current file path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto file (navi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line visual mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abracadabra extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle md preview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle md side preview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undo line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abracadabra move up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abracadabra move down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cursor undo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove line comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close saved ed in group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show all ed</t>
+  </si>
+  <si>
+    <t>search ed shrink</t>
+  </si>
+  <si>
+    <t>search ed expand</t>
+  </si>
+  <si>
+    <t>search ed hide file</t>
+  </si>
+  <si>
+    <t>leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle wrap/term size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle zen mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back to word start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back to big word start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to next word start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to next big word start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set sel anchor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run build task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle right side bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle left side bar; toggle bold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record/stop macro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to last edit location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quick open (navi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record in keybinding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join line:browes prev tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man word; brower next tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen low; brower history forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen high; brower history back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new line below</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new line above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show remote menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to symbol in ed; term open link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle output; rust to parent mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy ed to new window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open from diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organize imports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat f/F/t/T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat f/F/t/T back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus breadcrumbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader for tests (all, current...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open ed num 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move ed into last group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open ed num 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open ed num 3</t>
+  </si>
+  <si>
+    <t>open ed num 4</t>
+  </si>
+  <si>
+    <t>open ed num 5</t>
+  </si>
+  <si>
+    <t>open ed num 6</t>
+  </si>
+  <si>
+    <t>open ed num 7</t>
+  </si>
+  <si>
+    <t>open ed num 8</t>
+  </si>
+  <si>
+    <t>open ed num 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open last ed in group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus group 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus group 2</t>
+  </si>
+  <si>
+    <t>focus group 3</t>
+  </si>
+  <si>
+    <t>focus group 4</t>
+  </si>
+  <si>
+    <t>focus group 5</t>
+  </si>
+  <si>
+    <t>focus group 6</t>
+  </si>
+  <si>
+    <t>focus group 7</t>
+  </si>
+  <si>
+    <t>focus group 8</t>
+  </si>
+  <si>
+    <t>focus left side bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fold level 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fold level 2</t>
+  </si>
+  <si>
+    <t>fold level 3</t>
+  </si>
+  <si>
+    <t>fold level 4</t>
+  </si>
+  <si>
+    <t>fold level 5</t>
+  </si>
+  <si>
+    <t>fold level 6</t>
+  </si>
+  <si>
+    <t>fold level 7</t>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +1000,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,8 +1040,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,6 +1069,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -787,7 +1101,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,8 +1114,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,10 +1143,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
@@ -1145,22 +1466,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78644FB8-AE72-4A7A-98BF-3633880210F3}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1221,8 +1546,23 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" t="s">
+        <v>191</v>
+      </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1230,10 +1570,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1254,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1266,8 +1606,11 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1275,43 +1618,67 @@
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1322,16 +1689,76 @@
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -1352,23 +1779,68 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1380,16 +1852,40 @@
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" t="s">
+        <v>182</v>
+      </c>
+      <c r="J27" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>214</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,19 +1893,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="L29" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -1417,22 +1913,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -1440,10 +1936,10 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1495,109 +1991,175 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>102</v>
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" t="s">
+        <v>221</v>
       </c>
       <c r="L34" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" t="s">
+        <v>228</v>
       </c>
       <c r="L35" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" t="s">
+        <v>222</v>
       </c>
       <c r="L36" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" t="s">
+        <v>223</v>
       </c>
       <c r="L37" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" t="s">
+        <v>224</v>
       </c>
       <c r="L38" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" t="s">
+        <v>225</v>
       </c>
       <c r="L39" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" t="s">
+        <v>226</v>
       </c>
       <c r="L40" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>140</v>
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" t="s">
+        <v>227</v>
       </c>
       <c r="L41" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" t="s">
+        <v>219</v>
+      </c>
+      <c r="G42" t="s">
+        <v>220</v>
+      </c>
+      <c r="L42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
-        <v>141</v>
-      </c>
-      <c r="L42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="F43" t="s">
-        <v>137</v>
+        <v>229</v>
+      </c>
+      <c r="L43" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -1605,19 +2167,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -1625,22 +2187,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L45" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -1648,22 +2210,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -1671,22 +2233,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -1760,13 +2322,13 @@
         <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,12 +2336,12 @@
         <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,7 +2349,22 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,12 +2414,12 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1931,7 +2508,7 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,7 +2559,7 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,7 +2575,7 @@
         <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C79" t="s">
         <v>85</v>

--- a/vim-vscode-shortcuts.xlsx
+++ b/vim-vscode-shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beepl\git\ahk-layered-keymap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1917B5D8-0BA1-40A8-AF0A-ABDDE9710211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB6DC0-2FA6-44DB-BE9D-C37D5162EC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{5885CC67-E1D3-42A2-A308-8F6862713078}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="287">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,10 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>find in folder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goto mark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,10 +787,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toggle left side bar; toggle bold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>record/stop macro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -993,6 +985,170 @@
   </si>
   <si>
     <t>line start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>append at line end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>append after cursor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert before cursor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert at line start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keybinding add keybinding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept notification action; todo archive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle block comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace one char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reveal in explorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term run recent cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search toggle regex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refactor; search ed search again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reveal in windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open recent project (navi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substitude one char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substitude one line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md strike; todo start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle left side bar; md bold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save no formatting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open keybinding ref page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open keybinding ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find till one char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find back till one char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find one char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find back one char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to symbol in workspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select color theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reopen closed ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to bottom line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to row/col; term go to recent dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle git view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>format; find in folder in file list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>format sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close workspace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1467,10 +1623,10 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1479,9 +1635,9 @@
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
@@ -1541,28 +1697,46 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
         <v>185</v>
       </c>
-      <c r="C3" t="s">
-        <v>186</v>
-      </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" t="s">
         <v>190</v>
       </c>
-      <c r="H3" t="s">
-        <v>191</v>
-      </c>
       <c r="L3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,21 +1767,48 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" t="s">
+        <v>284</v>
+      </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>283</v>
+      </c>
+      <c r="J7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L7" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
         <v>118</v>
@@ -1617,6 +1818,12 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
       <c r="L10" t="s">
         <v>97</v>
       </c>
@@ -1626,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L11" t="s">
         <v>110</v>
@@ -1640,16 +1847,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L12" t="s">
         <v>117</v>
@@ -1660,7 +1867,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E13" t="s">
         <v>91</v>
@@ -1677,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,31 +1897,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" t="s">
         <v>204</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K16" t="s">
+        <v>210</v>
+      </c>
+      <c r="L16" t="s">
         <v>205</v>
-      </c>
-      <c r="D16" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" t="s">
-        <v>208</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K16" t="s">
-        <v>212</v>
-      </c>
-      <c r="L16" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,25 +1929,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" t="s">
         <v>159</v>
       </c>
-      <c r="C17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>160</v>
       </c>
-      <c r="F17" t="s">
+      <c r="J17" t="s">
         <v>161</v>
       </c>
-      <c r="J17" t="s">
-        <v>162</v>
-      </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,57 +1955,123 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" t="s">
         <v>193</v>
-      </c>
-      <c r="C18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J18" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" t="s">
+        <v>257</v>
+      </c>
+      <c r="J19" t="s">
+        <v>261</v>
+      </c>
+      <c r="L19" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" t="s">
+        <v>265</v>
+      </c>
+      <c r="J20" t="s">
+        <v>270</v>
+      </c>
+      <c r="L20" t="s">
+        <v>272</v>
+      </c>
+      <c r="M20" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E21" t="s">
+        <v>279</v>
+      </c>
+      <c r="L21" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
         <v>170</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
         <v>171</v>
       </c>
-      <c r="D22" t="s">
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
         <v>174</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" t="s">
-        <v>176</v>
-      </c>
-      <c r="L22" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,22 +2079,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" t="s">
         <v>164</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" t="s">
         <v>165</v>
       </c>
-      <c r="D23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="J23" t="s">
         <v>168</v>
-      </c>
-      <c r="H23" t="s">
-        <v>166</v>
-      </c>
-      <c r="J23" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,10 +2105,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" t="s">
         <v>187</v>
-      </c>
-      <c r="C24" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,22 +2129,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" t="s">
         <v>181</v>
       </c>
-      <c r="C27" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="J27" t="s">
         <v>183</v>
-      </c>
-      <c r="F27" t="s">
-        <v>182</v>
-      </c>
-      <c r="J27" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,16 +2152,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" t="s">
         <v>214</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>216</v>
       </c>
-      <c r="D28" t="s">
-        <v>218</v>
-      </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,19 +2169,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,22 +2189,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" t="s">
         <v>143</v>
-      </c>
-      <c r="C30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" t="s">
-        <v>145</v>
-      </c>
-      <c r="L30" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,19 +2271,19 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
         <v>121</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
         <v>122</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>124</v>
-      </c>
-      <c r="E33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2015,13 +2291,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2029,13 +2305,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2043,13 +2319,13 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2057,13 +2333,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2071,13 +2347,13 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2085,13 +2361,13 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2099,13 +2375,13 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2113,10 +2389,10 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L41" t="s">
         <v>101</v>
@@ -2124,19 +2400,19 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F42" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s">
         <v>112</v>
@@ -2147,16 +2423,16 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L43" t="s">
         <v>100</v>
@@ -2167,16 +2443,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s">
         <v>102</v>
@@ -2187,19 +2463,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" t="s">
         <v>148</v>
       </c>
-      <c r="C45" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" t="s">
-        <v>149</v>
-      </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s">
         <v>111</v>
@@ -2210,19 +2486,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
         <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s">
         <v>103</v>
@@ -2233,19 +2509,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
         <v>109</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s">
         <v>113</v>
@@ -2322,13 +2598,13 @@
         <v>71</v>
       </c>
       <c r="D52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" t="s">
+        <v>179</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="E52" t="s">
-        <v>180</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,19 +2628,19 @@
         <v>98</v>
       </c>
       <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" t="s">
         <v>153</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>154</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>155</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>156</v>
-      </c>
-      <c r="G55" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,5 +2921,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A42" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/vim-vscode-shortcuts.xlsx
+++ b/vim-vscode-shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beepl\git\ahk-layered-keymap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB6DC0-2FA6-44DB-BE9D-C37D5162EC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F105C682-0500-4727-8DBC-588478D035B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{5885CC67-E1D3-42A2-A308-8F6862713078}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="307">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,10 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sel all find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,10 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expand emmet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,10 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>open to side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goto mark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1132,10 +1120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toggle git view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>format; find in folder in file list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1149,6 +1133,109 @@
   </si>
   <si>
     <t>close workspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to next word end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to next big word end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus open ed view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to file (navi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explorer view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keybinding define when expr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search toggle find in sel; search ed toggle ctx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expand line sel; new chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select all matches; add cursor on matches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show or focus hover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle chat view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle copilot edit view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show suggest or details; md italic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search find prev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search replace all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggggg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin/unpin ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search select all matches;
+search ed open in ed;
+test edit focused test;
+abracadabra quick fix;
+todo toggle box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new line above; 
+search replace all in file/folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new line below; 
+open file/ref/result/problem to side;
+todo toggle box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1623,10 +1710,10 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1635,11 +1722,11 @@
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
@@ -1698,22 +1785,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" t="s">
         <v>247</v>
       </c>
-      <c r="C2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="L2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,22 +1808,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" t="s">
         <v>185</v>
-      </c>
-      <c r="D3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H3" t="s">
-        <v>190</v>
-      </c>
-      <c r="L3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,10 +1831,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,35 +1842,53 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,27 +1896,30 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1927,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="D10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" t="s">
+        <v>295</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,10 +1950,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,36 +1964,48 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
       <c r="C13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" t="s">
-        <v>91</v>
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" t="s">
+        <v>290</v>
+      </c>
+      <c r="I13" t="s">
+        <v>291</v>
       </c>
       <c r="L13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,31 +2026,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" t="s">
+        <v>203</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16" t="s">
+        <v>207</v>
+      </c>
+      <c r="L16" t="s">
         <v>202</v>
-      </c>
-      <c r="C16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" t="s">
-        <v>211</v>
-      </c>
-      <c r="H16" t="s">
-        <v>206</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K16" t="s">
-        <v>210</v>
-      </c>
-      <c r="L16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,25 +2058,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
         <v>158</v>
       </c>
-      <c r="C17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" t="s">
-        <v>160</v>
-      </c>
-      <c r="J17" t="s">
-        <v>161</v>
-      </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,16 +2084,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
         <v>191</v>
       </c>
-      <c r="C18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" t="s">
-        <v>194</v>
-      </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,31 +2101,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H19" t="s">
         <v>254</v>
       </c>
-      <c r="C19" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" t="s">
-        <v>260</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="J19" t="s">
         <v>258</v>
       </c>
-      <c r="G19" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" t="s">
-        <v>257</v>
-      </c>
-      <c r="J19" t="s">
-        <v>261</v>
-      </c>
       <c r="L19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,28 +2133,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" t="s">
         <v>264</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" t="s">
+        <v>262</v>
+      </c>
+      <c r="J20" t="s">
         <v>267</v>
       </c>
-      <c r="E20" t="s">
-        <v>268</v>
-      </c>
-      <c r="F20" t="s">
-        <v>265</v>
-      </c>
-      <c r="J20" t="s">
-        <v>270</v>
-      </c>
       <c r="L20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,19 +2162,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" t="s">
         <v>274</v>
       </c>
-      <c r="D21" t="s">
-        <v>277</v>
-      </c>
       <c r="E21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,25 +2182,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
         <v>170</v>
       </c>
-      <c r="D22" t="s">
-        <v>173</v>
-      </c>
       <c r="E22" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
         <v>171</v>
-      </c>
-      <c r="J22" t="s">
-        <v>175</v>
-      </c>
-      <c r="L22" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,25 +2208,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
         <v>163</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>164</v>
       </c>
-      <c r="D23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" t="s">
-        <v>167</v>
-      </c>
       <c r="F23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
         <v>165</v>
-      </c>
-      <c r="J23" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,10 +2234,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,7 +2245,7 @@
         <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,22 +2258,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" t="s">
         <v>180</v>
-      </c>
-      <c r="C27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" t="s">
-        <v>181</v>
-      </c>
-      <c r="J27" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,16 +2281,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" t="s">
         <v>212</v>
-      </c>
-      <c r="C28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E28" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,19 +2298,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" t="s">
         <v>135</v>
       </c>
-      <c r="D29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" t="s">
-        <v>138</v>
-      </c>
       <c r="L29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,22 +2318,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
         <v>136</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
         <v>141</v>
       </c>
-      <c r="E30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" t="s">
-        <v>144</v>
-      </c>
       <c r="L30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,10 +2341,10 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2242,7 +2371,7 @@
         <v>63</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>65</v>
@@ -2271,19 +2400,19 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" t="s">
         <v>120</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
         <v>121</v>
-      </c>
-      <c r="D33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2291,13 +2420,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L34" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2305,13 +2434,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2319,13 +2448,13 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2333,13 +2462,13 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2347,13 +2476,13 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2361,13 +2490,16 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="E39" t="s">
+        <v>300</v>
       </c>
       <c r="F39" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2375,13 +2507,13 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2389,33 +2521,33 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F41" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G42" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2423,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2443,19 +2575,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2463,22 +2595,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2486,22 +2618,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
         <v>129</v>
       </c>
-      <c r="C46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" t="s">
-        <v>132</v>
-      </c>
       <c r="L46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2509,22 +2641,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
         <v>130</v>
       </c>
-      <c r="C47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" t="s">
-        <v>133</v>
-      </c>
       <c r="L47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2598,26 +2730,44 @@
         <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="84" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D53" t="s">
-        <v>119</v>
+      <c r="C53" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H53" t="s">
+        <v>299</v>
+      </c>
+      <c r="J53" t="s">
+        <v>302</v>
+      </c>
+      <c r="K53" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,22 +2775,22 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" t="s">
         <v>152</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
         <v>153</v>
-      </c>
-      <c r="E55" t="s">
-        <v>154</v>
-      </c>
-      <c r="F55" t="s">
-        <v>155</v>
-      </c>
-      <c r="G55" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,12 +2840,12 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2784,7 +2934,7 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,7 +2985,7 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,7 +3001,7 @@
         <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
         <v>85</v>

--- a/vim-vscode-shortcuts.xlsx
+++ b/vim-vscode-shortcuts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beepl\git\ahk-layered-keymap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F105C682-0500-4727-8DBC-588478D035B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D3C55-3406-4FA2-BD17-1BB820F01683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{5885CC67-E1D3-42A2-A308-8F6862713078}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{5885CC67-E1D3-42A2-A308-8F6862713078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="367">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d toggle breakpt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>g ref</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,18 +403,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expand emmet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fold block comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fold all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,14 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toggle fold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toggle fold recursively</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,26 +455,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>line comment; snippet explain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copy path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>copy relative path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sel from anchor; keybinding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hierarchy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goto mark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toggle terminal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>start dictation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,10 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quick fix; change drop/paste type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>redo command</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,15 +611,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toggle preserve case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>copy current file path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>goto file (navi)</t>
+  </si>
+  <si>
+    <t>goto file (navi)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -675,22 +630,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abracadabra extract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>paste</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toggle md preview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toggle md side preview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>undo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,22 +642,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abracadabra move up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abracadabra move down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cursor undo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>remove line comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>close saved ed in group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,31 +653,14 @@
     <t>show all ed</t>
   </si>
   <si>
-    <t>search ed shrink</t>
-  </si>
-  <si>
-    <t>search ed expand</t>
-  </si>
-  <si>
-    <t>search ed hide file</t>
-  </si>
-  <si>
     <t>leader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toggle wrap/term size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>redo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toggle zen mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>back to word start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,10 +685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toggle right side bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>record/stop macro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,26 +701,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>record in keybinding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>join line:browes prev tab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>man word; brower next tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen low; brower history forward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen high; brower history back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>screen middle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -839,14 +733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>go to symbol in ed; term open link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toggle output; rust to parent mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>copy ed to new window</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -996,18 +882,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keybinding add keybinding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accept notification action; todo archive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toggle block comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>replace one char</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1024,18 +898,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search toggle regex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;&amp;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>refactor; search ed search again</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reveal in windows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1056,10 +922,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toggle left side bar; md bold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1076,14 +938,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>open keybinding ref page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open keybinding ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>find till one char</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1100,10 +954,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>go to symbol in workspace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select color theme</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1112,18 +962,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>go to bottom line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go to row/col; term go to recent dir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>format; find in folder in file list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>find</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1148,10 +986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>go to file (navi)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1160,14 +994,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keybinding define when expr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search toggle find in sel; search ed toggle ctx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1176,34 +1002,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select all matches; add cursor on matches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show or focus hover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toggle chat view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toggle copilot edit view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show suggest or details; md italic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search find prev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search replace all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ggggg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1220,22 +1018,426 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search select all matches;
-search ed open in ed;
+    <t xml:space="preserve">cut one char </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut one char before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trim trailing blanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change to line end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy active file path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tg left side bar; md bold</t>
+  </si>
+  <si>
+    <t>tg right side bar</t>
+  </si>
+  <si>
+    <t>tg copilot edit view</t>
+  </si>
+  <si>
+    <t>tg chat view</t>
+  </si>
+  <si>
+    <t>tg fold</t>
+  </si>
+  <si>
+    <t>tg preserve case</t>
+  </si>
+  <si>
+    <t>tg output; rust to parent mod</t>
+  </si>
+  <si>
+    <t>tg wrap/term size</t>
+  </si>
+  <si>
+    <t>tg zen mode</t>
+  </si>
+  <si>
+    <t>tg terminal</t>
+  </si>
+  <si>
+    <t>d tg breakpt</t>
+  </si>
+  <si>
+    <t>srch case; todo cancel; md list</t>
+  </si>
+  <si>
+    <t>srch in sel; srch ed tg ctx</t>
+  </si>
+  <si>
+    <t>refactor; srch ed srch again</t>
+  </si>
+  <si>
+    <t>srch tg regex</t>
+  </si>
+  <si>
+    <t>srch ed shrink</t>
+  </si>
+  <si>
+    <t>srch ed expand</t>
+  </si>
+  <si>
+    <t>srch ed hide file</t>
+  </si>
+  <si>
+    <t>srch find prev</t>
+  </si>
+  <si>
+    <t>new line above; 
+srch replace all in file/folder</t>
+  </si>
+  <si>
+    <t>srch replace all</t>
+  </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open ext term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare with clipboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete to line end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add sel to next match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip current match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare with saved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debug view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abra move down; guess lang</t>
+  </si>
+  <si>
+    <t>abra move up</t>
+  </si>
+  <si>
+    <t>format; find in explorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yank to line end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debug console view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close all ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close all groups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close all ed in group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srch whole word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abra inline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tg max group size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tg problem view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tg tab navi; md tg math env</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tg panel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srch ed/view tg details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abra tg highlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call hierarchy; abra refresh hl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abra remove hl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quick open navi back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto bottom line</t>
+  </si>
+  <si>
+    <t>goto symbol in ed; term open link</t>
+  </si>
+  <si>
+    <t>goto symbol in workspace</t>
+  </si>
+  <si>
+    <t>go row/col; term recent dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show suggest/details; md italic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new line below; 
+open to side;
+todo tg box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qfix; change drop/paste type</t>
+  </si>
+  <si>
+    <t>srch select all matches;
+srch ed open in ed;
 test edit focused test;
-abracadabra quick fix;
-todo toggle box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new line above; 
-search replace all in file/folder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new line below; 
-open file/ref/result/problem to side;
-todo toggle box</t>
+abra qfix;
+todo tg box</t>
+  </si>
+  <si>
+    <t>man word; brwsr next tab</t>
+  </si>
+  <si>
+    <t>tg test his in peek</t>
+  </si>
+  <si>
+    <t>screen high; brwsr back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen low; brwsr frwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select/add cursor on all matches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept notif action; todo archive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessibility config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fins in list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictation; abra extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrap console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inline chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md tg side preview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md tg preview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join/split ed in group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tg fold recursively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show/focus hover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show notif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git unstash selected ranges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git revert selected ranges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git stage selected ranges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb tg scroll cell output</t>
+  </si>
+  <si>
+    <t>tg block cmt</t>
+  </si>
+  <si>
+    <t>remove line cmt</t>
+  </si>
+  <si>
+    <t>tg line cmt; snpt explain</t>
+  </si>
+  <si>
+    <t>fold all block cmts</t>
+  </si>
+  <si>
+    <t>cmt add on cur sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kb add kb</t>
+  </si>
+  <si>
+    <t>kb define when expr</t>
+  </si>
+  <si>
+    <t>record in kb</t>
+  </si>
+  <si>
+    <t>sel from anchor; def kb</t>
+  </si>
+  <si>
+    <t>open kb ed</t>
+  </si>
+  <si>
+    <t>add line cmt; nb ex/cl cell input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb ex/cl cell output</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,7 +1563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1389,6 +1591,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1397,7 +1605,54 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1710,30 +1965,34 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.9140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>359</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1785,22 +2044,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>338</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>339</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L2" t="s">
-        <v>248</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,41 +2070,86 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" t="s">
+        <v>272</v>
+      </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>260</v>
+      </c>
+      <c r="J4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L4" t="s">
+        <v>365</v>
       </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="P4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" t="s">
+        <v>291</v>
+      </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>292</v>
+      </c>
+      <c r="J5" t="s">
+        <v>289</v>
+      </c>
+      <c r="L5" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,22 +2157,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="J6" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="L6" t="s">
-        <v>289</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,22 +2180,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>239</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="G7" t="s">
-        <v>279</v>
+        <v>294</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="J7" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="L7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,16 +2209,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,10 +2229,25 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>335</v>
+      </c>
+      <c r="D9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>321</v>
+      </c>
+      <c r="H9" t="s">
+        <v>320</v>
+      </c>
+      <c r="I9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,33 +2255,45 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="E10" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="H10" t="s">
-        <v>295</v>
+        <v>264</v>
+      </c>
+      <c r="J10" t="s">
+        <v>343</v>
       </c>
       <c r="L10" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" t="s">
+        <v>315</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,19 +2304,19 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,70 +2327,106 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="F13" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="I13" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="L13" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="M13" t="s">
-        <v>105</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>309</v>
+      </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" t="s">
+        <v>312</v>
+      </c>
+      <c r="J14" t="s">
+        <v>310</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" t="s">
+        <v>308</v>
+      </c>
+      <c r="L15" t="s">
+        <v>350</v>
+      </c>
+      <c r="M15" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="G16" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,25 +2434,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
         <v>156</v>
-      </c>
-      <c r="F17" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" t="s">
-        <v>158</v>
-      </c>
-      <c r="L17" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,16 +2460,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
-      </c>
-      <c r="J18" t="s">
-        <v>190</v>
+        <v>168</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,31 +2480,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F19" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G19" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="H19" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="J19" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="L19" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,28 +2512,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="F20" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="J20" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s">
-        <v>269</v>
+        <v>364</v>
       </c>
       <c r="M20" t="s">
-        <v>266</v>
+        <v>231</v>
+      </c>
+      <c r="P20" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,19 +2544,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="E21" t="s">
-        <v>276</v>
+        <v>238</v>
+      </c>
+      <c r="J21" t="s">
+        <v>366</v>
       </c>
       <c r="L21" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,25 +2567,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,25 +2593,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>345</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
+        <v>341</v>
       </c>
       <c r="J23" t="s">
-        <v>165</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,46 +2619,100 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" t="s">
+        <v>302</v>
+      </c>
+      <c r="F24" t="s">
+        <v>303</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="J24" t="s">
+        <v>301</v>
+      </c>
+      <c r="L24" t="s">
+        <v>299</v>
+      </c>
+      <c r="M24" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" t="s">
+        <v>257</v>
+      </c>
       <c r="L25" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" t="s">
+        <v>297</v>
+      </c>
+      <c r="J26" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
-        <v>180</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,16 +2720,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,19 +2737,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L29" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,33 +2757,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="L31" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2371,7 +2816,7 @@
         <v>63</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>65</v>
@@ -2395,276 +2840,279 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="F34" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="F37" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="F39" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="L41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="F42" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="G42" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="L42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="L43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F44" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="L48">
         <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,44 +3178,44 @@
         <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>176</v>
+        <v>278</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="84" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="70" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="H53" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="J53" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="K53" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,22 +3223,22 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G55" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,12 +3288,12 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2934,7 +3382,7 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,7 +3398,7 @@
         <v>53</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +3422,7 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,7 +3433,7 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,22 +3449,22 @@
         <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
         <v>85</v>
       </c>
-      <c r="D79" t="s">
-        <v>86</v>
-      </c>
       <c r="E79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" t="s">
+        <v>87</v>
+      </c>
+      <c r="J79" t="s">
         <v>89</v>
-      </c>
-      <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="J79" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3069,6 +3517,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$F$21</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/vim-vscode-shortcuts.xlsx
+++ b/vim-vscode-shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beepl\git\ahk-layered-keymap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D3C55-3406-4FA2-BD17-1BB820F01683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FC8D22-C394-4254-88FF-B163ABB04F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{5885CC67-E1D3-42A2-A308-8F6862713078}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="486">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,54 +327,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d step over</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n sym-hl/diff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n problem in files</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n sel find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p sel find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d step into; fullscr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>g impl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d pause; n part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>peek def</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,14 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>def to side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>esc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,22 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n-l ref/find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g def; n-l ref/sym</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unfold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unfold all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>change case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>new terminal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,42 +411,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prev blank line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>next blank line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev sentence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>next sentence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev head {/}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>next head {/}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>outdent line</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prev inline suggestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>next inline suggestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>indent line</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,42 +475,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delete word left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>remove brackets</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prev suggestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev recent tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>least recent tab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prev recent window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>least recent window</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put before cursor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>put after cursor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>show all commands</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,17 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cursor undo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>close saved ed in group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show all ed</t>
-  </si>
-  <si>
     <t>leader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,14 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>to next word start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to next big word start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>set sel anchor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,18 +562,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>join line:browes prev tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>screen middle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delete line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>new line below</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,10 +586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>copy ed to new window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>open from diff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,81 +606,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>focus breadcrumbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>leader for tests (all, current...)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>open ed num 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>move ed into last group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open ed num 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open ed num 3</t>
-  </si>
-  <si>
-    <t>open ed num 4</t>
-  </si>
-  <si>
-    <t>open ed num 5</t>
-  </si>
-  <si>
-    <t>open ed num 6</t>
-  </si>
-  <si>
-    <t>open ed num 7</t>
-  </si>
-  <si>
-    <t>open ed num 8</t>
-  </si>
-  <si>
-    <t>open ed num 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open last ed in group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>focus group 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>focus group 2</t>
-  </si>
-  <si>
-    <t>focus group 3</t>
-  </si>
-  <si>
-    <t>focus group 4</t>
-  </si>
-  <si>
-    <t>focus group 5</t>
-  </si>
-  <si>
-    <t>focus group 6</t>
-  </si>
-  <si>
-    <t>focus group 7</t>
-  </si>
-  <si>
-    <t>focus group 8</t>
-  </si>
-  <si>
-    <t>focus left side bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fold level 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -866,22 +644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>append after cursor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert before cursor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert at line start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>replace one char</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -954,14 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select color theme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reopen closed ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>find</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -974,18 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>to next word end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to next big word end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>focus open ed view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1002,10 +744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ggggg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1080,31 +818,10 @@
     <t>tg terminal</t>
   </si>
   <si>
-    <t>d tg breakpt</t>
-  </si>
-  <si>
     <t>srch case; todo cancel; md list</t>
   </si>
   <si>
-    <t>srch in sel; srch ed tg ctx</t>
-  </si>
-  <si>
-    <t>refactor; srch ed srch again</t>
-  </si>
-  <si>
     <t>srch tg regex</t>
-  </si>
-  <si>
-    <t>srch ed shrink</t>
-  </si>
-  <si>
-    <t>srch ed expand</t>
-  </si>
-  <si>
-    <t>srch ed hide file</t>
-  </si>
-  <si>
-    <t>srch find prev</t>
   </si>
   <si>
     <t>new line above; 
@@ -1126,18 +843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete to line end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add sel to next match</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skip current match</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1176,22 +881,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>close ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>close all ed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>close all groups</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>close all ed in group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>close window</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1200,14 +893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>next match</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prev match</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>new file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1228,10 +913,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tg max group size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tg problem view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1244,10 +925,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>srch ed/view tg details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1285,9 +962,6 @@
   </si>
   <si>
     <t>goto bottom line</t>
-  </si>
-  <si>
-    <t>goto symbol in ed; term open link</t>
   </si>
   <si>
     <t>goto symbol in workspace</t>
@@ -1310,134 +984,842 @@
     <t>qfix; change drop/paste type</t>
   </si>
   <si>
-    <t>srch select all matches;
-srch ed open in ed;
-test edit focused test;
+    <t>tg test his in peek</t>
+  </si>
+  <si>
+    <t>screen high; brwsr back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen low; brwsr frwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept notif action; todo archive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessibility config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fins in list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictation; abra extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrap console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inline chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tg fold recursively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show notif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git unstash selected ranges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git revert selected ranges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git stage selected ranges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb tg scroll cell output</t>
+  </si>
+  <si>
+    <t>tg block cmt</t>
+  </si>
+  <si>
+    <t>remove line cmt</t>
+  </si>
+  <si>
+    <t>tg line cmt; snpt explain</t>
+  </si>
+  <si>
+    <t>fold all block cmts</t>
+  </si>
+  <si>
+    <t>cmt add on cur sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kb add kb</t>
+  </si>
+  <si>
+    <t>kb define when expr</t>
+  </si>
+  <si>
+    <t>record in kb</t>
+  </si>
+  <si>
+    <t>sel from anchor; def kb</t>
+  </si>
+  <si>
+    <t>add line cmt; nb ex/cl cell input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb ex/cl cell output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unfold; md heading down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fold; md heading up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play macro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto matched bracket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soft line start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat last search :s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soft linewise start down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srch replace one/all in file/folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto line start/col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto bracket; term tabs view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto mark line start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>window menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trg inline suggetion</t>
+  </si>
+  <si>
+    <t>trg sug/detail; term req completion</t>
+  </si>
+  <si>
+    <t>trg param hints</t>
+  </si>
+  <si>
+    <t>normal mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>append after csr</t>
+  </si>
+  <si>
+    <t>select/add csr on all matches</t>
+  </si>
+  <si>
+    <t>put after csr</t>
+  </si>
+  <si>
+    <t>put before csr</t>
+  </si>
+  <si>
+    <t>csr undo</t>
+  </si>
+  <si>
+    <t>tg max grp size</t>
+  </si>
+  <si>
+    <t>close all grps</t>
+  </si>
+  <si>
+    <t>copy line up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add csr above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add csr below</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy line dn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shink sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move grp/view up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move grp/view dn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move grp/view left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expand sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move grp/view right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term scroll line up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sel col pgup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srch edt/view tg details</t>
+  </si>
+  <si>
+    <t>srch in sel; srch edt tg ctx</t>
+  </si>
+  <si>
+    <t>goto symbol in edt; term open link</t>
+  </si>
+  <si>
+    <t>copy edt to new window</t>
+  </si>
+  <si>
+    <t>show all edt</t>
+  </si>
+  <si>
+    <t>refactor; srch edt srch again</t>
+  </si>
+  <si>
+    <t>open kb edt</t>
+  </si>
+  <si>
+    <t>reopen closedt edt</t>
+  </si>
+  <si>
+    <t>close saved edt in grp</t>
+  </si>
+  <si>
+    <t>close all edt in grp</t>
+  </si>
+  <si>
+    <t>open edt num 1</t>
+  </si>
+  <si>
+    <t>move edt into first grp</t>
+  </si>
+  <si>
+    <t>open edt num 2</t>
+  </si>
+  <si>
+    <t>open edt num 3</t>
+  </si>
+  <si>
+    <t>open edt num 4</t>
+  </si>
+  <si>
+    <t>open edt num 5</t>
+  </si>
+  <si>
+    <t>open edt num 6</t>
+  </si>
+  <si>
+    <t>open edt num 7</t>
+  </si>
+  <si>
+    <t>open edt num 8</t>
+  </si>
+  <si>
+    <t>open last edt in grp</t>
+  </si>
+  <si>
+    <t>open edt num 9</t>
+  </si>
+  <si>
+    <t>move edt into last grp</t>
+  </si>
+  <si>
+    <t>tg vert/horizontal edt layout</t>
+  </si>
+  <si>
+    <t>srch edt shrink</t>
+  </si>
+  <si>
+    <t>srch edt expand</t>
+  </si>
+  <si>
+    <t>split edt down</t>
+  </si>
+  <si>
+    <t>join/split edt in grp; nb split cell</t>
+  </si>
+  <si>
+    <t>srch edt hide file</t>
+  </si>
+  <si>
+    <t>move edt left</t>
+  </si>
+  <si>
+    <t>sel up</t>
+  </si>
+  <si>
+    <t>sel col up</t>
+  </si>
+  <si>
+    <t>sel dn</t>
+  </si>
+  <si>
+    <t>sel col dn</t>
+  </si>
+  <si>
+    <t>sel left</t>
+  </si>
+  <si>
+    <t>sel col left</t>
+  </si>
+  <si>
+    <t>sel right</t>
+  </si>
+  <si>
+    <t>sel col right</t>
+  </si>
+  <si>
+    <t>sel pgup</t>
+  </si>
+  <si>
+    <t>sel pgdn</t>
+  </si>
+  <si>
+    <t>sel home</t>
+  </si>
+  <si>
+    <t>sel end</t>
+  </si>
+  <si>
+    <t>sel all</t>
+  </si>
+  <si>
+    <t>set color theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scroll pgup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move edt right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scroll pgdn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term scroll line dn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sel col pgdn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr dn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr pgup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr pgdn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr word left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr word right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr top; term scroll to top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr bottom; term scroll to bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sel to word left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sel to word right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sel to top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sel to bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del word right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>del to line end</t>
+  </si>
+  <si>
+    <t>del line</t>
+  </si>
+  <si>
+    <t>del left</t>
+  </si>
+  <si>
+    <t>del word left</t>
+  </si>
+  <si>
+    <t>ins before csr</t>
+  </si>
+  <si>
+    <t>ins at line start</t>
+  </si>
+  <si>
+    <t>ins/replace mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change all occurrences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open accessible view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start linked editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rename (term tab)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d step into target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d step out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g refs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessibility help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open def to side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find all refs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show ctx menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tg screen reader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close edt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">d start without debugging </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d stop/disconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcu open edt view</t>
+  </si>
+  <si>
+    <t>show/fcu hover</t>
+  </si>
+  <si>
+    <t>fcu breadcrumbs</t>
+  </si>
+  <si>
+    <t>fcu grp 1</t>
+  </si>
+  <si>
+    <t>fcu grp 2</t>
+  </si>
+  <si>
+    <t>fcu grp 3</t>
+  </si>
+  <si>
+    <t>fcu grp 4</t>
+  </si>
+  <si>
+    <t>fcu grp 5</t>
+  </si>
+  <si>
+    <t>fcu grp 6</t>
+  </si>
+  <si>
+    <t>fcu grp 7</t>
+  </si>
+  <si>
+    <t>fcu grp 8</t>
+  </si>
+  <si>
+    <t>fcu into left side bar</t>
+  </si>
+  <si>
+    <t>tg sug/detail fcu</t>
+  </si>
+  <si>
+    <t>srch sel all matches;
+srch edt open in edt;
+test edit fcued test;
 abra qfix;
 todo tg box</t>
   </si>
   <si>
-    <t>man word; brwsr next tab</t>
-  </si>
-  <si>
-    <t>tg test his in peek</t>
-  </si>
-  <si>
-    <t>screen high; brwsr back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen low; brwsr frwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select/add cursor on all matches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accept notif action; todo archive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accessibility config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fins in list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictation; abra extract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrap console</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inline chat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>md tg side preview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>md tg preview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join/split ed in group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tg fold recursively</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show/focus hover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show notif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git unstash selected ranges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git revert selected ranges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git stage selected ranges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nb tg scroll cell output</t>
-  </si>
-  <si>
-    <t>tg block cmt</t>
-  </si>
-  <si>
-    <t>remove line cmt</t>
-  </si>
-  <si>
-    <t>tg line cmt; snpt explain</t>
-  </si>
-  <si>
-    <t>fold all block cmts</t>
-  </si>
-  <si>
-    <t>cmt add on cur sel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kb add kb</t>
-  </si>
-  <si>
-    <t>kb define when expr</t>
-  </si>
-  <si>
-    <t>record in kb</t>
-  </si>
-  <si>
-    <t>sel from anchor; def kb</t>
-  </si>
-  <si>
-    <t>open kb ed</t>
-  </si>
-  <si>
-    <t>add line cmt; nb ex/cl cell input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nb ex/cl cell output</t>
+    <t>fcu grp above</t>
+  </si>
+  <si>
+    <t>fcu grp below</t>
+  </si>
+  <si>
+    <t>fcu grp left</t>
+  </si>
+  <si>
+    <t>fcu grp right</t>
+  </si>
+  <si>
+    <t>list fcu first</t>
+  </si>
+  <si>
+    <t>list fcu last</t>
+  </si>
+  <si>
+    <t>join line:browes prv tab</t>
+  </si>
+  <si>
+    <t>prv match</t>
+  </si>
+  <si>
+    <t>md tg prview</t>
+  </si>
+  <si>
+    <t>md tg side prview</t>
+  </si>
+  <si>
+    <t>goto prv matched word</t>
+  </si>
+  <si>
+    <t>prv sentence</t>
+  </si>
+  <si>
+    <t>prv head {/}</t>
+  </si>
+  <si>
+    <t>prv blank line</t>
+  </si>
+  <si>
+    <t>prv inline sug</t>
+  </si>
+  <si>
+    <t>srch find prv</t>
+  </si>
+  <si>
+    <t>prv sug</t>
+  </si>
+  <si>
+    <t>prv recent tab</t>
+  </si>
+  <si>
+    <t>prv recent window</t>
+  </si>
+  <si>
+    <t>scroll line up; 
+fcu inline chat/history;
+term scroll to prv cmd;</t>
+  </si>
+  <si>
+    <t>sel up;
+term sel to prv cmd</t>
+  </si>
+  <si>
+    <t>move line up;
+term fcu prv term in grp;
+show prv param hint;
+view prv commit</t>
+  </si>
+  <si>
+    <t>go back; fcu prv term in grp</t>
+  </si>
+  <si>
+    <t>move edt into prv grp</t>
+  </si>
+  <si>
+    <t>open prv edt; fcu prv term grp</t>
+  </si>
+  <si>
+    <t>open prv edt in grp</t>
+  </si>
+  <si>
+    <t>find prv</t>
+  </si>
+  <si>
+    <t>find prv sel</t>
+  </si>
+  <si>
+    <t>show prv change</t>
+  </si>
+  <si>
+    <t>prv ref/match in list</t>
+  </si>
+  <si>
+    <t>goto prv change</t>
+  </si>
+  <si>
+    <t>add sel to nxt match</t>
+  </si>
+  <si>
+    <t>to nxt word end</t>
+  </si>
+  <si>
+    <t>to nxt big word end</t>
+  </si>
+  <si>
+    <t>man word; brwsr nxt tab</t>
+  </si>
+  <si>
+    <t>nxt match</t>
+  </si>
+  <si>
+    <t>to nxt word start</t>
+  </si>
+  <si>
+    <t>to nxt big word start</t>
+  </si>
+  <si>
+    <t>goto nxt matched word</t>
+  </si>
+  <si>
+    <t>nxt sentence</t>
+  </si>
+  <si>
+    <t>nxt head {/}</t>
+  </si>
+  <si>
+    <t>nxt blank line</t>
+  </si>
+  <si>
+    <t>nxt inline sug</t>
+  </si>
+  <si>
+    <t>scroll line dn; 
+term scroll to nxt cmd;</t>
+  </si>
+  <si>
+    <t>sel dn;
+term sel to nxt cmd</t>
+  </si>
+  <si>
+    <t>move line dn;
+term fcu nxt term in grp;
+show nxt param hint;
+view nxt commit</t>
+  </si>
+  <si>
+    <t>go frwd; fcu nxt term in grp</t>
+  </si>
+  <si>
+    <t>move edt into nxt grp</t>
+  </si>
+  <si>
+    <t>open nxt edt; fcu nxt term grp</t>
+  </si>
+  <si>
+    <t>open nxt edt in grp</t>
+  </si>
+  <si>
+    <t>find nxt</t>
+  </si>
+  <si>
+    <t>find nxt sel</t>
+  </si>
+  <si>
+    <t>show nxt change</t>
+  </si>
+  <si>
+    <t>nxt ref/match in list</t>
+  </si>
+  <si>
+    <t>goto nxt change</t>
+  </si>
+  <si>
+    <t>d pause; fcs nxt part</t>
+  </si>
+  <si>
+    <t>g def; nxt ref/sym</t>
+  </si>
+  <si>
+    <t>fcu prv part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nxt sym-hl/diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prv sym-hl/diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nxt problem in files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prv problem in files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nxt problem/test failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prv problem/test failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d tg breakpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d inline breakpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1563,7 +1945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1597,6 +1979,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1605,7 +1990,7 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1624,29 +2009,6 @@
         </top>
         <bottom style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1965,18 +2327,18 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
@@ -1985,16 +2347,19 @@
     <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.9140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>359</v>
+        <v>265</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2044,25 +2409,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>339</v>
+        <v>249</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="L2" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,22 +2435,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="L3" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,34 +2458,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="J4" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="L4" t="s">
-        <v>365</v>
+        <v>270</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,28 +2493,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>382</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>383</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>451</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="J5" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="L5" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,22 +2522,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>452</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>453</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="J6" t="s">
-        <v>244</v>
+        <v>406</v>
       </c>
       <c r="L6" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,28 +2545,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="J7" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="L7" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,16 +2574,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>328</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,25 +2594,25 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>318</v>
+        <v>232</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>319</v>
+        <v>233</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>334</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="H9" t="s">
-        <v>320</v>
+        <v>234</v>
       </c>
       <c r="I9" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,25 +2620,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>387</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="H10" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="J10" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="L10" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,16 +2649,16 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>426</v>
       </c>
       <c r="D11" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,19 +2669,19 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>333</v>
+        <v>454</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>384</v>
       </c>
       <c r="F12" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
       <c r="L12" t="s">
-        <v>363</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,25 +2692,25 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="F13" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="L13" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="M13" t="s">
-        <v>347</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,22 +2718,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="J14" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,25 +2741,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>455</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>427</v>
       </c>
       <c r="D15" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="L15" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="M15" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,31 +2767,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G16" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,25 +2799,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,19 +2825,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,31 +2845,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="F19" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="G19" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="H19" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,31 +2877,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="M20" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="P20" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,22 +2909,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="J21" t="s">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="L21" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,25 +2932,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
+        <v>324</v>
       </c>
       <c r="L22" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,25 +2958,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>345</v>
+        <v>428</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s">
-        <v>341</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,37 +2984,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>456</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>457</v>
       </c>
       <c r="D24" t="s">
-        <v>298</v>
+        <v>402</v>
       </c>
       <c r="E24" t="s">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J24" t="s">
+        <v>325</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="s">
         <v>303</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="J24" t="s">
-        <v>301</v>
-      </c>
-      <c r="L24" t="s">
-        <v>299</v>
-      </c>
-      <c r="M24" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,19 +3022,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,19 +3042,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="C26" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,22 +3062,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="J27" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,16 +3085,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,19 +3102,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="L29" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,22 +3122,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,22 +3145,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>316</v>
+        <v>230</v>
       </c>
       <c r="C31" t="s">
-        <v>317</v>
+        <v>231</v>
       </c>
       <c r="D31" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s">
-        <v>357</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
+      <c r="B32" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>2</v>
@@ -2816,7 +3184,7 @@
         <v>63</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>65</v>
@@ -2845,154 +3213,184 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="D33" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>1</v>
       </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>409</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>326</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="L34" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>2</v>
       </c>
+      <c r="C35" t="s">
+        <v>276</v>
+      </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>3</v>
       </c>
+      <c r="C36" t="s">
+        <v>430</v>
+      </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>411</v>
       </c>
       <c r="F36" t="s">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>4</v>
       </c>
+      <c r="C37" t="s">
+        <v>277</v>
+      </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>412</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>5</v>
       </c>
+      <c r="C38" t="s">
+        <v>278</v>
+      </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>413</v>
+      </c>
+      <c r="E38" t="s">
+        <v>283</v>
       </c>
       <c r="F38" t="s">
-        <v>190</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>6</v>
       </c>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
       <c r="D39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" t="s">
-        <v>249</v>
+        <v>414</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>7</v>
       </c>
+      <c r="C40" t="s">
+        <v>280</v>
+      </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>415</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>8</v>
       </c>
+      <c r="C41" t="s">
+        <v>458</v>
+      </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>416</v>
       </c>
       <c r="F41" t="s">
-        <v>193</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>431</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>335</v>
       </c>
       <c r="F42" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -3000,19 +3398,22 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>459</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>417</v>
       </c>
       <c r="F43" t="s">
-        <v>195</v>
+        <v>335</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="L43" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -3020,19 +3421,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>281</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -3040,22 +3444,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F45" t="s">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="L45" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -3063,22 +3467,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>432</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>433</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>434</v>
       </c>
       <c r="L46" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -3086,44 +3490,68 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>460</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>461</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="F47" t="s">
-        <v>120</v>
+        <v>462</v>
       </c>
       <c r="L47" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L48">
-        <v>1</v>
+      <c r="B48" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" t="s">
+        <v>286</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="L48" t="s">
+        <v>341</v>
       </c>
       <c r="M48" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="B49" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
+      <c r="B50" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>2</v>
@@ -3172,19 +3600,40 @@
       <c r="A51" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" t="s">
+        <v>295</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H51" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="B52" t="s">
+        <v>385</v>
+      </c>
+      <c r="C52" t="s">
+        <v>385</v>
+      </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>386</v>
       </c>
       <c r="E52" t="s">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="70" x14ac:dyDescent="0.3">
@@ -3192,30 +3641,33 @@
         <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>279</v>
+        <v>435</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>330</v>
+        <v>243</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>332</v>
+        <v>419</v>
       </c>
       <c r="H53" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="J53" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="K53" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="B54" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,22 +3675,22 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>436</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>437</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>141</v>
+        <v>438</v>
       </c>
       <c r="G55" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,60 +3698,279 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="56" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>364</v>
+      </c>
+      <c r="C57" t="s">
+        <v>345</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H57" t="s">
+        <v>305</v>
+      </c>
+      <c r="I57" t="s">
+        <v>346</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="L57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="56" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>365</v>
+      </c>
+      <c r="C58" t="s">
+        <v>347</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H58" t="s">
+        <v>306</v>
+      </c>
+      <c r="I58" t="s">
+        <v>348</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="L58" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="B59" t="s">
+        <v>366</v>
+      </c>
+      <c r="C59" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" t="s">
+        <v>372</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F59" t="s">
+        <v>442</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="L59" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="B60" t="s">
+        <v>367</v>
+      </c>
+      <c r="C60" t="s">
+        <v>351</v>
+      </c>
+      <c r="D60" t="s">
+        <v>373</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F60" t="s">
+        <v>466</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="L60" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B61" t="s">
+        <v>368</v>
+      </c>
+      <c r="C61" t="s">
+        <v>353</v>
+      </c>
+      <c r="D61" t="s">
+        <v>444</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="L61" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="B62" t="s">
+        <v>369</v>
+      </c>
+      <c r="C62" t="s">
+        <v>354</v>
+      </c>
+      <c r="D62" t="s">
+        <v>468</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="L62" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="B63" t="s">
+        <v>370</v>
+      </c>
+      <c r="C63" t="s">
+        <v>355</v>
+      </c>
+      <c r="D63" t="s">
+        <v>374</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="B64" t="s">
+        <v>371</v>
+      </c>
+      <c r="C64" t="s">
+        <v>356</v>
+      </c>
+      <c r="D64" t="s">
+        <v>375</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>380</v>
+      </c>
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>389</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
+      <c r="B67" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="C67" s="1" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>2</v>
@@ -3351,13 +4022,28 @@
       <c r="B68" t="s">
         <v>74</v>
       </c>
+      <c r="F68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G68" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>393</v>
+      </c>
+      <c r="D69" t="s">
+        <v>390</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,16 +4051,22 @@
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="E70" t="s">
-        <v>82</v>
+        <v>447</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +4074,16 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>473</v>
+      </c>
+      <c r="C71" t="s">
+        <v>449</v>
+      </c>
+      <c r="D71" t="s">
+        <v>402</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +4093,31 @@
       <c r="B72" t="s">
         <v>73</v>
       </c>
+      <c r="C72" t="s">
+        <v>405</v>
+      </c>
+      <c r="D72" t="s">
+        <v>404</v>
+      </c>
+      <c r="E72" t="s">
+        <v>403</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>475</v>
+      </c>
+      <c r="C73" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,7 +4125,10 @@
         <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>478</v>
+      </c>
+      <c r="C74" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,7 +4136,16 @@
         <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>480</v>
+      </c>
+      <c r="C75" t="s">
+        <v>481</v>
+      </c>
+      <c r="F75" t="s">
+        <v>482</v>
+      </c>
+      <c r="G75" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,7 +4153,10 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>484</v>
+      </c>
+      <c r="C76" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,10 +4164,10 @@
         <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,7 +4175,13 @@
         <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>395</v>
+      </c>
+      <c r="D78" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,28 +4189,37 @@
         <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>476</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>396</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E79" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>399</v>
       </c>
       <c r="J79" t="s">
-        <v>89</v>
+        <v>398</v>
+      </c>
+      <c r="L79" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
+      <c r="B80" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="C80" s="1" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>2</v>
